--- a/_DataBerlin/_Data_description_2020.xlsx
+++ b/_DataBerlin/_Data_description_2020.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -169,9 +169,6 @@
     <t>Wildboar hunting data as specified in Stillfried et al. 2017</t>
   </si>
   <si>
-    <t>Under /Tiererfassungsdaten</t>
-  </si>
-  <si>
     <t>Birds_Berlin_exercise.csv</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>Noise during the day and night im 100m resolution, EPSG 3035, Based on FISBROKER Strat. Lärmkarte L_DEN (Tag-Abend-Nacht-Index) Straßenverkehr 2017 (Umweltatlas)</t>
+  </si>
+  <si>
+    <t>Under /animal_data</t>
   </si>
 </sst>
 </file>
@@ -542,9 +542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -582,9 +582,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,7 +654,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -830,19 +830,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="3" width="93.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="83.7265625" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -870,7 +870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -892,7 +892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -917,7 +917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="57.95" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -931,7 +931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -945,7 +945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -953,10 +953,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -981,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="72.599999999999994" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -992,7 +992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="57.95" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>37</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -1061,69 +1061,69 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1156,441 +1156,441 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" t="s">
         <v>71</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="D41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" t="s">
         <v>76</v>
       </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" t="s">
         <v>79</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" t="s">
         <v>90</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" t="s">
         <v>94</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>96</v>
       </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>100</v>
       </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" t="s">
         <v>102</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>111</v>
       </c>
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B60" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>119</v>
       </c>
-      <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="2" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>123</v>
-      </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="2" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" t="s">
         <v>130</v>
-      </c>
-      <c r="D67" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
